--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0437377</v>
+        <v>0.04373769999999998</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1739870095004372</v>
+        <v>0.1739870095004384</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374833</v>
+        <v>0.2494892361374998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2461024035666767</v>
+        <v>0.2461024035666794</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0452041964333233</v>
+        <v>0.04520419643332062</v>
       </c>
       <c r="N2" t="n">
-        <v>4.751744176170906</v>
+        <v>4.75174417617096</v>
       </c>
       <c r="O2" t="n">
-        <v>3.661163550243289</v>
+        <v>3.661163550243366</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1781453084160687</v>
+        <v>0.1781453084160675</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3915310017590743</v>
+        <v>0.3915310017590722</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9830278388706954</v>
+        <v>0.9830278388706928</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1452656901187611</v>
+        <v>0.1452656901187638</v>
       </c>
       <c r="N2" t="n">
-        <v>9.44870590823351</v>
+        <v>9.448705908233407</v>
       </c>
       <c r="O2" t="n">
-        <v>4.4733706535501</v>
+        <v>4.473370653550024</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2392614167965955</v>
+        <v>0.2392614167965769</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8460388918735822</v>
+        <v>0.8460388918735862</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.521671717636277</v>
+        <v>1.521671717636272</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0.8959633499999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3107943743787094</v>
+        <v>0.3107943743787088</v>
       </c>
       <c r="N2" t="n">
-        <v>18.89408503026288</v>
+        <v>18.89408503026337</v>
       </c>
       <c r="O2" t="n">
-        <v>18.48400300769027</v>
+        <v>18.48400300769049</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04373769999999998</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.002168060809513972</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1739870095004384</v>
+        <v>0.3759634166263097</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374998</v>
+        <v>0.2494892361375063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4613074999999999</v>
+        <v>0.3511355</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2461024035666794</v>
+        <v>0.6154939666666667</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04520419643332062</v>
+        <v>0.08148166666666669</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75174417617096</v>
+        <v>12.70991232200972</v>
       </c>
       <c r="O2" t="n">
-        <v>3.661163550243366</v>
+        <v>3.512978867815095</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1781453084160675</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04814661662630972</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3915310017590722</v>
+        <v>0.2278274343708592</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3287832710105434</v>
+        <v>0.3478968171620428</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9830278388706928</v>
+        <v>0.1883974735243333</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1452656901187638</v>
+        <v>0.04652328729864512</v>
       </c>
       <c r="N2" t="n">
-        <v>9.448705908233407</v>
+        <v>5.392237274658115</v>
       </c>
       <c r="O2" t="n">
-        <v>4.473370653550024</v>
+        <v>2.368284394810271</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2392614167965769</v>
+        <v>0.08592412015137646</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.02745799999999977</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8460388918735862</v>
+        <v>0.17352283365371</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.521671717636272</v>
+        <v>0.4671923527233682</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8959633499999999</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3107943743787088</v>
+        <v>0.04618854603468839</v>
       </c>
       <c r="N2" t="n">
-        <v>18.89408503026337</v>
+        <v>8.292092835219293</v>
       </c>
       <c r="O2" t="n">
-        <v>18.48400300769049</v>
+        <v>4.959649583040046</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04373769999999998</v>
+        <v>0.1624567780954824</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.9554273017925227</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1739870095004384</v>
+        <v>0.3917053222916412</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374998</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4613074999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2461024035666794</v>
+        <v>3.455367777415365</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04520419643332062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.75174417617096</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.661163550243366</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1781453084160675</v>
+        <v>0.3090910010489287</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.266381959751479</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3915310017590722</v>
+        <v>0.2394921069875444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1404298455060329</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3287832710105434</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9830278388706928</v>
+        <v>15.7585042473903</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1452656901187638</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.448705908233407</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.473370653550024</v>
+        <v>6.596509234744438</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2392614167965769</v>
+        <v>0.7377366835703789</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.719518606880604</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8460388918735862</v>
+        <v>0.1788530108931593</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1251219664555552</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.521671717636272</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8959633499999999</v>
+        <v>29.1475946151485</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3107943743787088</v>
-      </c>
-      <c r="N2" t="n">
-        <v>18.89408503026337</v>
-      </c>
-      <c r="O2" t="n">
-        <v>18.48400300769049</v>
+        <v>7.335623058591873</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -982,12 +924,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1125,12 +1051,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1268,12 +1178,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,29 +517,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1624567780954824</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9554273017925227</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.5071603285555327</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3917053222916412</v>
+        <v>0.7500791291218792</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.03390299552087939</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.06880566916063374</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -540,9 +550,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.455367777415365</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1484.495258049877</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.364628064996624</v>
       </c>
     </row>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,29 +660,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3090910010489287</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.266381959751479</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.756339136896401</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2394921069875444</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1404298455060329</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -667,9 +693,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.7585042473903</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91.16447935746896</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.596509234744438</v>
       </c>
     </row>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7377366835703789</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.719518606880604</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.68373244199821</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1788530108931593</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.5311684851534565</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1251219664555552</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1251219664555566</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -794,10 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>29.1475946151485</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.335623058591873</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>52.83243046701409</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.335623058591816</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -924,6 +982,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.728928277269006e-11</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1051,6 +1125,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1178,6 +1268,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5071603285555327</v>
+        <v>0.3084611501146229</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>0.7500791291218792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03390299552087939</v>
+        <v>0.2376811459635352</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06880566916063374</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.02860061350835323</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1484.495258049877</v>
+        <v>297.931779340767</v>
       </c>
       <c r="O2" t="n">
-        <v>3.364628064996624</v>
+        <v>18.23822558516159</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.756339136896401</v>
+        <v>2.074753775084501</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2781199518145624</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1404298455060329</v>
+        <v>0.08344432575923999</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>91.16447935746896</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.596509234744438</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.2773588537556915</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.68373244199821</v>
+        <v>1.983107875749118</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5311684851534565</v>
+        <v>0.1088671697574284</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1251219664555566</v>
+        <v>0.2022398127286913</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52.83243046701409</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.335623058591816</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.728928277269006e-11</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>

--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.1384346700474188</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3084611501146229</v>
+        <v>0.2849732290167586</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>0.7500791291218792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2376811459635352</v>
+        <v>0.3799323037699707</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02860061350835323</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>297.931779340767</v>
+        <v>10.66876489852827</v>
       </c>
       <c r="O2" t="n">
-        <v>18.23822558516159</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.0764905738401527</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.074753775084501</v>
+        <v>2.285930945966653</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2781199518145624</v>
+        <v>0.190747867648235</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08344432575923999</v>
+        <v>0.1404298455060329</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>31.20124743047062</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.596509234744438</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2773588537556915</v>
+        <v>0.7182900999324401</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.983107875749118</v>
+        <v>1.71215126716125</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1088671697574284</v>
+        <v>0.2369623269328458</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2022398127286913</v>
+        <v>0.1251219664555553</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>21.42216663853431</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.335623058591866</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -517,28 +517,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1384346700474188</v>
+        <v>0.1410789069868053</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2849732290167586</v>
+        <v>0.6785225767660767</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7500791291218792</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3799323037699707</v>
+        <v>0.3801199839263441</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06880566916063374</v>
+        <v>0.06880566916063373</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10.66876489852827</v>
+        <v>10.37410347733572</v>
       </c>
       <c r="O2" t="n">
-        <v>3.364628064996624</v>
+        <v>3.364628064996622</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0764905738401527</v>
+        <v>0.07477615285078318</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.285930945966653</v>
+        <v>2.285773390488922</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.190747867648235</v>
+        <v>0.1920240600555603</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>31.20124743047062</v>
+        <v>31.49919728099805</v>
       </c>
       <c r="O2" t="n">
-        <v>6.596509234744438</v>
+        <v>6.59650923474444</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7182900999324401</v>
+        <v>0.7152196563304553</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.71215126716125</v>
+        <v>1.713011314839325</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2369623269328458</v>
+        <v>0.2359291194050053</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1251219664555553</v>
+        <v>0.1251219664555111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21.42216663853431</v>
+        <v>21.51248703817857</v>
       </c>
       <c r="O2" t="n">
-        <v>7.335623058591866</v>
+        <v>7.335623058593901</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002168060809513972</v>
+        <v>0.001746599999999987</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3759634166263097</v>
+        <v>0.3768025662791765</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375063</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3511355</v>
+        <v>0.3498594026637402</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6154939666666667</v>
+        <v>0.6154130306695934</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08148166666666669</v>
+        <v>0.08155166666666669</v>
       </c>
       <c r="N2" t="n">
-        <v>12.70991232200972</v>
+        <v>12.74649432135023</v>
       </c>
       <c r="O2" t="n">
-        <v>3.512978867815095</v>
+        <v>3.479419494504655</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04814661662630972</v>
+        <v>0.06421966386250128</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2278274343708592</v>
+        <v>0.3707797323306978</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3478968171620428</v>
+        <v>0.4839130140029263</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1883974735243333</v>
+        <v>0.3654923693304067</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04652328729864512</v>
+        <v>0.08039441666666663</v>
       </c>
       <c r="N2" t="n">
-        <v>5.392237274658115</v>
+        <v>9.33903126345416</v>
       </c>
       <c r="O2" t="n">
-        <v>2.368284394810271</v>
+        <v>3.811842201374865</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08592412015137646</v>
+        <v>0.08566576916083338</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02745799999999977</v>
+        <v>0.02980781357332229</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.17352283365371</v>
+        <v>0.1657437090872776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4671923527233682</v>
+        <v>0.4559350780436531</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04618854603468839</v>
+        <v>0.0437026666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>8.292092835219293</v>
+        <v>8.958541033809858</v>
       </c>
       <c r="O2" t="n">
-        <v>4.959649583040046</v>
+        <v>5.258423268621357</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07477615285078318</v>
+        <v>0.07477615285078329</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1920240600555603</v>
+        <v>0.1920240600555602</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>31.49919728099805</v>
+        <v>31.49919728099842</v>
       </c>
       <c r="O2" t="n">
         <v>6.59650923474444</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7152196563304553</v>
+        <v>0.7152196563304588</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.713011314839325</v>
+        <v>1.713011314839327</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2359291194050053</v>
+        <v>0.2359291194049877</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1251219664555111</v>
+        <v>0.1251219664555762</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>21.51248703817857</v>
       </c>
       <c r="O2" t="n">
-        <v>7.335623058593901</v>
+        <v>7.335623058590913</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06880566916063373</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10.37410347733572</v>
+        <v>10.37410347733573</v>
       </c>
       <c r="O2" t="n">
         <v>3.364628064996622</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07477615285078329</v>
+        <v>0.07477615285078323</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>31.49919728099842</v>
+        <v>31.49919728099781</v>
       </c>
       <c r="O2" t="n">
         <v>6.59650923474444</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7152196563304588</v>
+        <v>0.7152196563304531</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.713011314839327</v>
+        <v>1.713011314839325</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2359291194049877</v>
+        <v>0.235929119405016</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1251219664555762</v>
+        <v>0.125121966455564</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21.51248703817857</v>
+        <v>21.51248703817848</v>
       </c>
       <c r="O2" t="n">
-        <v>7.335623058590913</v>
+        <v>7.335623058591457</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_capacity.xlsx
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3768025662791765</v>
+        <v>0.3768025662791764</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361375007</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6154130306695934</v>
+        <v>0.6154130306695935</v>
       </c>
       <c r="M2" t="n">
         <v>0.08155166666666669</v>
       </c>
       <c r="N2" t="n">
-        <v>12.74649432135023</v>
+        <v>12.7464943213502</v>
       </c>
       <c r="O2" t="n">
-        <v>3.479419494504655</v>
+        <v>3.479419494504652</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3707797323306978</v>
+        <v>0.3707797323306977</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3654923693304067</v>
+        <v>0.3654923693304066</v>
       </c>
       <c r="M2" t="n">
         <v>0.08039441666666663</v>
       </c>
       <c r="N2" t="n">
-        <v>9.33903126345416</v>
+        <v>9.339031263454169</v>
       </c>
       <c r="O2" t="n">
-        <v>3.811842201374865</v>
+        <v>3.811842201374867</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08566576916083338</v>
+        <v>0.08566576916083199</v>
       </c>
       <c r="B2" t="n">
         <v>0.02980781357332229</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1657437090872776</v>
+        <v>0.1657437090872782</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4559350780436531</v>
+        <v>0.4559350780436606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0.0437026666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>8.958541033809858</v>
+        <v>8.958541033809915</v>
       </c>
       <c r="O2" t="n">
-        <v>5.258423268621357</v>
+        <v>5.258423268621238</v>
       </c>
     </row>
   </sheetData>
